--- a/my_app/tabelki/imiona.xlsx
+++ b/my_app/tabelki/imiona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projekty\P4_Flask_V2\my_app\tabelki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5827B6C0-44CE-48D6-9E96-2BF69A5DDA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72B5DCB-1C68-45DB-BE38-D68D02960FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1245" windowWidth="24375" windowHeight="14190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t>Imię</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -879,13 +882,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
